--- a/src/test/data/anno_ArrayCells_template.xlsx
+++ b/src/test/data/anno_ArrayCells_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC305E6-CB7E-4EE4-8261-F681F6A3DEE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="75" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="32640" yWindow="2340" windowWidth="21615" windowHeight="13860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="1" r:id="rId1"/>
@@ -13,13 +14,14 @@
     <sheet name="配列の操作(Vertical)" sheetId="5" r:id="rId4"/>
     <sheet name="変換処理" sheetId="6" r:id="rId5"/>
     <sheet name="数式を指定" sheetId="7" r:id="rId6"/>
+    <sheet name="コメント情報" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>アノテーション「@XlsArrayCell」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +177,13 @@
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -220,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -269,11 +278,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,8 +322,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -299,12 +337,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -346,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +420,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -649,38 +724,38 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -699,7 +774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -899,11 +974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1031,4 +1106,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D444982F-833E-4275-B613-B5B51F572646}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>